--- a/Scrum_Master_Monitoring_Report3.xlsx
+++ b/Scrum_Master_Monitoring_Report3.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16474\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardservices.ca\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C738A2-1B7C-4C1D-8B50-97F993DBEE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E8C5D7-1B4D-4D9C-A716-E0D16352F800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Iteration 2 " sheetId="2" r:id="rId2"/>
+    <sheet name="Iteration 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
   <si>
     <t>User Story</t>
   </si>
@@ -95,9 +97,6 @@
     <t>Dmitri</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>US3</t>
   </si>
   <si>
@@ -147,13 +146,118 @@
   </si>
   <si>
     <t xml:space="preserve">Replaced By </t>
+  </si>
+  <si>
+    <t>Task Number</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>#30</t>
+  </si>
+  <si>
+    <t>Create sign-in form using a modal or login page</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>Create endpoint to handle the post/request of the login form</t>
+  </si>
+  <si>
+    <t>#32</t>
+  </si>
+  <si>
+    <t>Store account information in the database</t>
+  </si>
+  <si>
+    <t>#33</t>
+  </si>
+  <si>
+    <t>Create session/cookie containing logged-in user info</t>
+  </si>
+  <si>
+    <t>#34</t>
+  </si>
+  <si>
+    <t>Switch to 'my account' once login and session is set</t>
+  </si>
+  <si>
+    <t>#36</t>
+  </si>
+  <si>
+    <t>Design a shared form for brokers, investors, and agents to input client/property information</t>
+  </si>
+  <si>
+    <t>#37</t>
+  </si>
+  <si>
+    <t>Develop a POST /api/generate-report endpoint to process the submitted client and property information</t>
+  </si>
+  <si>
+    <t>#38</t>
+  </si>
+  <si>
+    <t>Display the report in a downloadable format</t>
+  </si>
+  <si>
+    <t>#35</t>
+  </si>
+  <si>
+    <t>Story: A broker, investor and agent can generate a report based on client information to provide accurate details</t>
+  </si>
+  <si>
+    <t>Story: Users can securely log in to the system using Authentication, ensuring access is restricted to authorized indivuduals based on their roles</t>
+  </si>
+  <si>
+    <t>#28</t>
+  </si>
+  <si>
+    <t>Asignees</t>
+  </si>
+  <si>
+    <t>#39</t>
+  </si>
+  <si>
+    <t>#40</t>
+  </si>
+  <si>
+    <t>Create an alert setup page in settings page in the same place where the user can manage their account</t>
+  </si>
+  <si>
+    <t>#41</t>
+  </si>
+  <si>
+    <t>Set up the backend API for alert configuration</t>
+  </si>
+  <si>
+    <t>#42</t>
+  </si>
+  <si>
+    <t>Create a backend job or script to simulate changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours Taken  for the task </t>
+  </si>
+  <si>
+    <t>Actual Hours</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +270,19 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,19 +333,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,19 +668,19 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,19 +700,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -599,7 +732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -619,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -627,7 +760,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -642,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -650,7 +783,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -665,7 +798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -685,7 +818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -705,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -719,18 +852,18 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -742,15 +875,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -762,12 +895,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -782,12 +915,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -802,29 +935,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -833,52 +966,52 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -893,12 +1026,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
         <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -913,32 +1046,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -956,4 +1089,324 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4AACA9-E24F-4A55-96FC-8A1BD5C93E27}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7129B1DE-7123-4297-A7C0-77D1BB282AB2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>